--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_发现组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_发现组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -232,6 +232,14 @@
   </si>
   <si>
     <t>【房东APP】业主管理查询不出数据的bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App第二次进忘记密码页面，没有把第一次输入的密码及验证码清掉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP账单推送租客选择页面下一步按钮被隐藏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -908,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1562,45 +1570,85 @@
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="13">
+        <v>42506</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="13">
+        <v>42506</v>
+      </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="14"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="7">
+        <v>1754</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="13">
+        <v>42506</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="13">
+        <v>42506</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="14"/>
       <c r="N17" s="13"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="7">
+        <v>1772</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="18"/>

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_发现组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\VersionRecords\Version3.1.3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -215,19 +210,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>房东PC端登录界面下载谷歌浏览器相关文字、链接未居中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东APP】业主管理查询不出数据的bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【房东PC】【房东APP】语音播报验证码 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此功能会伴随6月份的新版房态图以前上线，这个版本入口先隐藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>【房东APP】房东App推送多次账单时，每月收款日期不能输入，点击没有反应</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC端登录界面下载谷歌浏览器相关文字、链接未居中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东APP】业主管理查询不出数据的bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【房东PC】【房东APP】语音播报验证码 </t>
+    <t>【房东APP】【房东PC】付一压一的押金自动带出不允许修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +928,7 @@
   <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="R4" sqref="R4:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1020,13 +1043,21 @@
         <v>38</v>
       </c>
       <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
+      <c r="L2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42515</v>
+      </c>
       <c r="O2" s="14"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="R2" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
@@ -1060,14 +1091,24 @@
         <v>34</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
+      <c r="L3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42515</v>
+      </c>
       <c r="O3" s="14"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="18"/>
+      <c r="R3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -1100,13 +1141,21 @@
         <v>41</v>
       </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
+      <c r="L4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42515</v>
+      </c>
       <c r="O4" s="14"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="R4" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
@@ -1115,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>27</v>
@@ -1140,13 +1189,21 @@
         <v>43</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
+      <c r="L5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42515</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
+      <c r="R5" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S5" s="32"/>
       <c r="T5" s="10"/>
     </row>
@@ -1180,13 +1237,21 @@
         <v>43</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
+      <c r="L6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42515</v>
+      </c>
       <c r="O6" s="14"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="R6" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
@@ -1220,13 +1285,21 @@
         <v>44</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
+      <c r="L7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42515</v>
+      </c>
       <c r="O7" s="14"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="R7" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
@@ -1260,13 +1333,21 @@
         <v>47</v>
       </c>
       <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
+      <c r="L8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42515</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="R8" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
@@ -1300,13 +1381,21 @@
         <v>34</v>
       </c>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
+      <c r="L9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42515</v>
+      </c>
       <c r="O9" s="14"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="R9" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S9" s="32"/>
       <c r="T9" s="10"/>
     </row>
@@ -1340,15 +1429,23 @@
         <v>43</v>
       </c>
       <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
+      <c r="L10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42515</v>
+      </c>
       <c r="O10" s="14"/>
       <c r="P10" s="22">
         <v>1768</v>
       </c>
       <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="R10" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
@@ -1382,15 +1479,23 @@
         <v>47</v>
       </c>
       <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
+      <c r="L11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42515</v>
+      </c>
       <c r="O11" s="14"/>
       <c r="P11" s="22">
         <v>1780</v>
       </c>
       <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="R11" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
@@ -1424,15 +1529,23 @@
         <v>36</v>
       </c>
       <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
+      <c r="L12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="13">
+        <v>42515</v>
+      </c>
       <c r="O12" s="14"/>
       <c r="P12" s="22">
         <v>1784</v>
       </c>
       <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="R12" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
@@ -1441,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>35</v>
@@ -1466,15 +1579,23 @@
         <v>36</v>
       </c>
       <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
+      <c r="L13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42515</v>
+      </c>
       <c r="O13" s="14"/>
       <c r="P13" s="22">
         <v>1785</v>
       </c>
       <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="R13" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
@@ -1483,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>35</v>
@@ -1508,13 +1629,21 @@
         <v>31</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
+      <c r="L14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42515</v>
+      </c>
       <c r="O14" s="14"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+      <c r="R14" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
@@ -1523,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>35</v>
@@ -1548,35 +1677,69 @@
         <v>36</v>
       </c>
       <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
+      <c r="L15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42515</v>
+      </c>
       <c r="O15" s="14"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="13">
+        <v>42500</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="13">
+        <v>42500</v>
+      </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
+      <c r="L16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="13">
+        <v>42515</v>
+      </c>
       <c r="O16" s="14"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_发现组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_发现组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\VersionRecords\Version3.1.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="版本3.1.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -251,6 +256,10 @@
   </si>
   <si>
     <t>【房东APP】【房东PC】付一压一的押金自动带出不允许修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -309,12 +318,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -928,7 +939,7 @@
   <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:R16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1038,7 +1049,9 @@
       <c r="H2" s="13">
         <v>42500</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J2" s="14" t="s">
         <v>38</v>
       </c>
@@ -1086,7 +1099,9 @@
       <c r="H3" s="13">
         <v>42501</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J3" s="14" t="s">
         <v>34</v>
       </c>
@@ -1136,7 +1151,9 @@
       <c r="H4" s="13">
         <v>42497</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J4" s="14" t="s">
         <v>41</v>
       </c>
@@ -1184,7 +1201,9 @@
       <c r="H5" s="13">
         <v>42506</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J5" s="14" t="s">
         <v>43</v>
       </c>
@@ -1232,7 +1251,9 @@
       <c r="H6" s="13">
         <v>42506</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J6" s="14" t="s">
         <v>43</v>
       </c>
@@ -1280,7 +1301,9 @@
       <c r="H7" s="13">
         <v>42497</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J7" s="14" t="s">
         <v>44</v>
       </c>
@@ -1328,7 +1351,9 @@
       <c r="H8" s="13">
         <v>42503</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J8" s="14" t="s">
         <v>47</v>
       </c>
@@ -1376,7 +1401,9 @@
       <c r="H9" s="13">
         <v>42497</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J9" s="14" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1451,9 @@
       <c r="H10" s="13">
         <v>42500</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J10" s="14" t="s">
         <v>43</v>
       </c>
@@ -1474,7 +1503,9 @@
       <c r="H11" s="13">
         <v>42500</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J11" s="14" t="s">
         <v>47</v>
       </c>
@@ -1524,7 +1555,9 @@
       <c r="H12" s="13">
         <v>42500</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J12" s="14" t="s">
         <v>36</v>
       </c>
@@ -1574,7 +1607,9 @@
       <c r="H13" s="13">
         <v>42500</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J13" s="14" t="s">
         <v>36</v>
       </c>
@@ -1624,7 +1659,9 @@
       <c r="H14" s="13">
         <v>42500</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J14" s="14" t="s">
         <v>31</v>
       </c>
@@ -1672,7 +1709,9 @@
       <c r="H15" s="13">
         <v>42500</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J15" s="14" t="s">
         <v>36</v>
       </c>
@@ -1720,7 +1759,9 @@
       <c r="H16" s="13">
         <v>42500</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J16" s="14" t="s">
         <v>43</v>
       </c>
